--- a/RouteSheet.xlsx
+++ b/RouteSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEADAA6B-E162-4B56-8FBE-0F1BD26C0F12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E425A9-5503-4B5D-9966-23EF08251360}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,10 +218,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,91 +503,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
